--- a/Dekhi Bangladesh Bug Report.xlsx
+++ b/Dekhi Bangladesh Bug Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Bangla Puzzle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Java\Dekhi_Bangladesh_Test_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
   <si>
     <t>Bug Reporting</t>
   </si>
@@ -730,20 +730,6 @@
     <t># SL 20</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Input field disabled for updating email field in profile page.</t>
-    </r>
-  </si>
-  <si>
     <t>1. Enter the url: https://db.bpwork.xyz/pages/edit_profile.html
 2. Try to change the email.
 3. Examine.</t>
@@ -1025,6 +1011,31 @@
   </si>
   <si>
     <t>Screenshot: registration link missing in site navbar</t>
+  </si>
+  <si>
+    <t>Screenshot: navigation menu shows the same page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Issue: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comment functionality under post doesn't work.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the site url.
+2. Go to a post &amp; scroll down to the comment section
+2. Try to post a comment.</t>
+  </si>
+  <si>
+    <t>Screenshot: comment functionality under post does not work</t>
   </si>
 </sst>
 </file>
@@ -1423,6 +1434,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1451,15 +1471,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1680,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1697,112 +1708,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="G3" s="30" t="s">
+      <c r="C3" s="28"/>
+      <c r="G3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="G4" s="30" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="G4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="G5" s="32" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="G5" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="22"/>
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="H7" s="10" t="s">
+      <c r="F7" s="18"/>
+      <c r="H7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="22"/>
+      <c r="E9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="H9" s="14" t="s">
+      <c r="F9" s="22"/>
+      <c r="H9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="E11" s="18" t="s">
+      <c r="C11" s="26"/>
+      <c r="E11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="H11" s="18" t="s">
+      <c r="F11" s="26"/>
+      <c r="H11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:24" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
@@ -1819,16 +1830,16 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
-        <v>125</v>
+      <c r="B13" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="E13" s="34" t="s">
-        <v>125</v>
+      <c r="E13" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="H13" s="34" t="s">
-        <v>125</v>
+      <c r="H13" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -1848,11 +1859,11 @@
     </row>
     <row r="15" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="5" t="s">
@@ -1908,62 +1919,62 @@
     </row>
     <row r="18" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="E19" s="10" t="s">
+      <c r="C19" s="18"/>
+      <c r="E19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="H19" s="10" t="s">
+      <c r="F19" s="18"/>
+      <c r="H19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="11"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="E21" s="14" t="s">
+      <c r="C21" s="22"/>
+      <c r="E21" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="H21" s="14" t="s">
+      <c r="F21" s="22"/>
+      <c r="H21" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="15"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="2:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="E23" s="18" t="s">
+      <c r="C23" s="26"/>
+      <c r="E23" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="H23" s="18" t="s">
+      <c r="F23" s="26"/>
+      <c r="H23" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="19"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
@@ -1980,16 +1991,16 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="34" t="s">
-        <v>125</v>
+      <c r="B25" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="E25" s="34" t="s">
-        <v>125</v>
+      <c r="E25" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="H25" s="34" t="s">
-        <v>125</v>
+      <c r="H25" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -2009,7 +2020,7 @@
     </row>
     <row r="27" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="2"/>
       <c r="E27" s="5" t="s">
@@ -2051,62 +2062,62 @@
     </row>
     <row r="30" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="E31" s="10" t="s">
+      <c r="C31" s="18"/>
+      <c r="E31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="H31" s="10" t="s">
+      <c r="F31" s="18"/>
+      <c r="H31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="11"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="E33" s="14" t="s">
+      <c r="C33" s="22"/>
+      <c r="E33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="H33" s="14" t="s">
+      <c r="F33" s="22"/>
+      <c r="H33" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="2:9" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="2:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="E35" s="18" t="s">
+      <c r="C35" s="26"/>
+      <c r="E35" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="H35" s="18" t="s">
+      <c r="F35" s="26"/>
+      <c r="H35" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="19"/>
+      <c r="I35" s="26"/>
     </row>
     <row r="36" spans="2:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
@@ -2123,16 +2134,16 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="34" t="s">
-        <v>125</v>
+      <c r="B37" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="E37" s="34" t="s">
-        <v>125</v>
+      <c r="E37" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="H37" s="34" t="s">
-        <v>125</v>
+      <c r="H37" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -2160,7 +2171,7 @@
       </c>
       <c r="F39" s="2"/>
       <c r="H39" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -2194,62 +2205,62 @@
     </row>
     <row r="42" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="E43" s="10" t="s">
+      <c r="C43" s="18"/>
+      <c r="E43" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="H43" s="10" t="s">
+      <c r="F43" s="18"/>
+      <c r="H43" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="11"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="13"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="E45" s="14" t="s">
+      <c r="C45" s="22"/>
+      <c r="E45" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="15"/>
-      <c r="H45" s="14" t="s">
+      <c r="F45" s="22"/>
+      <c r="H45" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I45" s="15"/>
+      <c r="I45" s="22"/>
     </row>
     <row r="46" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="E47" s="18" t="s">
+      <c r="C47" s="26"/>
+      <c r="E47" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="H47" s="18" t="s">
+      <c r="F47" s="26"/>
+      <c r="H47" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="19"/>
+      <c r="I47" s="26"/>
     </row>
     <row r="48" spans="2:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
@@ -2266,16 +2277,16 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="34" t="s">
-        <v>125</v>
+      <c r="B49" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="E49" s="34" t="s">
-        <v>125</v>
+      <c r="E49" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="H49" s="34" t="s">
-        <v>125</v>
+      <c r="H49" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -2317,7 +2328,7 @@
       </c>
       <c r="F52" s="2"/>
       <c r="H52" s="7" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -2337,62 +2348,62 @@
     </row>
     <row r="54" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="E55" s="10" t="s">
+      <c r="C55" s="18"/>
+      <c r="E55" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="H55" s="10" t="s">
+      <c r="F55" s="18"/>
+      <c r="H55" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="11"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="13"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="13"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="20"/>
     </row>
     <row r="57" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="E57" s="14" t="s">
+      <c r="C57" s="22"/>
+      <c r="E57" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="H57" s="14" t="s">
+      <c r="F57" s="22"/>
+      <c r="H57" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I57" s="15"/>
+      <c r="I57" s="22"/>
     </row>
     <row r="58" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="24"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="24"/>
     </row>
     <row r="59" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="E59" s="18" t="s">
+      <c r="C59" s="26"/>
+      <c r="E59" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F59" s="19"/>
-      <c r="H59" s="18" t="s">
+      <c r="F59" s="26"/>
+      <c r="H59" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="19"/>
+      <c r="I59" s="26"/>
     </row>
     <row r="60" spans="2:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
@@ -2409,16 +2420,16 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="2:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="34" t="s">
-        <v>125</v>
+      <c r="B61" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="E61" s="34" t="s">
-        <v>125</v>
+      <c r="E61" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="H61" s="34" t="s">
-        <v>125</v>
+      <c r="H61" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -2480,62 +2491,62 @@
     </row>
     <row r="66" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="67" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="E67" s="10" t="s">
+      <c r="C67" s="18"/>
+      <c r="E67" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="H67" s="10" t="s">
+      <c r="F67" s="18"/>
+      <c r="H67" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I67" s="11"/>
+      <c r="I67" s="18"/>
     </row>
     <row r="68" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="13"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="20"/>
     </row>
     <row r="69" spans="2:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="E69" s="14" t="s">
+      <c r="C69" s="22"/>
+      <c r="E69" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F69" s="15"/>
-      <c r="H69" s="14" t="s">
+      <c r="F69" s="22"/>
+      <c r="H69" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I69" s="15"/>
+      <c r="I69" s="22"/>
     </row>
     <row r="70" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="17"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="24"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="24"/>
     </row>
     <row r="71" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="19"/>
-      <c r="E71" s="18" t="s">
+      <c r="C71" s="26"/>
+      <c r="E71" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F71" s="19"/>
-      <c r="H71" s="18" t="s">
+      <c r="F71" s="26"/>
+      <c r="H71" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="19"/>
+      <c r="I71" s="26"/>
     </row>
     <row r="72" spans="2:9" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
@@ -2552,16 +2563,16 @@
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="2:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="34" t="s">
-        <v>125</v>
+      <c r="B73" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="E73" s="34" t="s">
-        <v>125</v>
+      <c r="E73" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="F73" s="2"/>
-      <c r="H73" s="34" t="s">
-        <v>125</v>
+      <c r="H73" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="I73" s="2"/>
     </row>
@@ -2623,62 +2634,62 @@
     </row>
     <row r="78" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="79" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="11"/>
-      <c r="E79" s="10" t="s">
+      <c r="C79" s="18"/>
+      <c r="E79" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F79" s="11"/>
-      <c r="H79" s="10" t="s">
+      <c r="F79" s="18"/>
+      <c r="H79" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I79" s="18"/>
+    </row>
+    <row r="80" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="20"/>
+    </row>
+    <row r="81" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="22"/>
+      <c r="E81" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="13"/>
-    </row>
-    <row r="81" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="E81" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F81" s="15"/>
-      <c r="H81" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I81" s="15"/>
+      <c r="F81" s="22"/>
+      <c r="H81" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I81" s="22"/>
     </row>
     <row r="82" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="17"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="17"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="24"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="24"/>
     </row>
     <row r="83" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="19"/>
-      <c r="E83" s="18" t="s">
+      <c r="C83" s="26"/>
+      <c r="E83" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F83" s="19"/>
-      <c r="H83" s="18" t="s">
+      <c r="F83" s="26"/>
+      <c r="H83" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I83" s="19"/>
+      <c r="I83" s="26"/>
     </row>
     <row r="84" spans="2:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
@@ -2686,25 +2697,25 @@
       </c>
       <c r="C84" s="2"/>
       <c r="E84" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F84" s="2"/>
       <c r="H84" s="4" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="2:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="34" t="s">
-        <v>125</v>
+      <c r="B85" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="E85" s="34" t="s">
-        <v>125</v>
+      <c r="E85" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="F85" s="2"/>
-      <c r="H85" s="34" t="s">
-        <v>125</v>
+      <c r="H85" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="I85" s="2"/>
     </row>
@@ -2718,7 +2729,7 @@
       </c>
       <c r="F86" s="2"/>
       <c r="H86" s="5" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I86" s="2"/>
     </row>
@@ -2742,11 +2753,11 @@
       </c>
       <c r="C88" s="2"/>
       <c r="E88" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F88" s="2"/>
-      <c r="H88" s="7" t="s">
-        <v>101</v>
+      <c r="H88" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="I88" s="2"/>
     </row>
@@ -2766,88 +2777,88 @@
     </row>
     <row r="90" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="91" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="E91" s="10" t="s">
+      <c r="B91" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="18"/>
+      <c r="E91" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F91" s="18"/>
+      <c r="H91" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="19"/>
+      <c r="C92" s="20"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="20"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="20"/>
+    </row>
+    <row r="93" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="22"/>
+      <c r="E93" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F91" s="11"/>
-      <c r="H91" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I91" s="11"/>
-    </row>
-    <row r="92" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="13"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="13"/>
-    </row>
-    <row r="93" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" s="15"/>
-      <c r="E93" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F93" s="15"/>
-      <c r="H93" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I93" s="15"/>
+      <c r="F93" s="22"/>
+      <c r="H93" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I93" s="22"/>
     </row>
     <row r="94" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="17"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="17"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="24"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="24"/>
     </row>
     <row r="95" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="E95" s="18" t="s">
+      <c r="C95" s="26"/>
+      <c r="E95" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F95" s="19"/>
-      <c r="H95" s="18" t="s">
+      <c r="F95" s="26"/>
+      <c r="H95" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I95" s="19"/>
+      <c r="I95" s="26"/>
     </row>
     <row r="96" spans="2:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2"/>
       <c r="E96" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F96" s="2"/>
       <c r="H96" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="2:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="34" t="s">
-        <v>125</v>
+      <c r="B97" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="E97" s="34" t="s">
-        <v>125</v>
+      <c r="E97" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="F97" s="2"/>
-      <c r="H97" s="34" t="s">
-        <v>125</v>
+      <c r="H97" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="I97" s="2"/>
     </row>
@@ -2871,25 +2882,25 @@
       </c>
       <c r="C99" s="2"/>
       <c r="E99" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F99" s="2"/>
       <c r="H99" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C100" s="2"/>
       <c r="E100" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F100" s="2"/>
       <c r="H100" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I100" s="2"/>
     </row>
@@ -2909,98 +2920,98 @@
     </row>
     <row r="102" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="E103" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F103" s="11"/>
-      <c r="H103" s="10" t="s">
+      <c r="B103" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="18"/>
+      <c r="E103" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="I103" s="11"/>
+      <c r="F103" s="18"/>
+      <c r="H103" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I103" s="18"/>
     </row>
     <row r="104" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="13"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="13"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="20"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="20"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="20"/>
     </row>
     <row r="105" spans="2:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C105" s="15"/>
-      <c r="E105" s="14" t="s">
+      <c r="B105" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F105" s="15"/>
-      <c r="H105" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I105" s="15"/>
+      <c r="C105" s="22"/>
+      <c r="E105" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F105" s="22"/>
+      <c r="H105" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I105" s="22"/>
     </row>
     <row r="106" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="16"/>
-      <c r="C106" s="17"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="17"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="17"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="24"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="24"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="24"/>
     </row>
     <row r="107" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="E107" s="18" t="s">
+      <c r="C107" s="26"/>
+      <c r="E107" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F107" s="19"/>
-      <c r="H107" s="18" t="s">
+      <c r="F107" s="26"/>
+      <c r="H107" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I107" s="19"/>
+      <c r="I107" s="26"/>
     </row>
     <row r="108" spans="2:9" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2"/>
       <c r="E108" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F108" s="2"/>
       <c r="H108" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="34" t="s">
-        <v>125</v>
+      <c r="B109" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="E109" s="34" t="s">
-        <v>125</v>
+      <c r="E109" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="F109" s="2"/>
-      <c r="H109" s="34" t="s">
-        <v>125</v>
+      <c r="H109" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2"/>
       <c r="E110" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2"/>
       <c r="H110" s="5" t="s">
@@ -3010,11 +3021,11 @@
     </row>
     <row r="111" spans="2:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C111" s="2"/>
       <c r="E111" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F111" s="2"/>
       <c r="H111" s="5" t="s">
@@ -3024,15 +3035,15 @@
     </row>
     <row r="112" spans="2:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2"/>
       <c r="E112" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2"/>
       <c r="H112" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I112" s="2"/>
     </row>
@@ -3939,22 +3950,61 @@
     <row r="1000" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="H103:I104"/>
-    <mergeCell ref="H105:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="B103:C104"/>
-    <mergeCell ref="B105:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E103:F104"/>
-    <mergeCell ref="E105:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E91:F92"/>
-    <mergeCell ref="E93:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="H91:I92"/>
-    <mergeCell ref="H93:I94"/>
-    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H67:I68"/>
+    <mergeCell ref="H69:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="E69:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="H57:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B3:C6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="H79:I80"/>
     <mergeCell ref="H81:I82"/>
     <mergeCell ref="H83:I83"/>
@@ -3966,61 +4016,22 @@
     <mergeCell ref="E79:F80"/>
     <mergeCell ref="E81:F82"/>
     <mergeCell ref="E83:F83"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B3:C6"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H55:I56"/>
-    <mergeCell ref="H57:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H67:I68"/>
-    <mergeCell ref="H69:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E67:F68"/>
-    <mergeCell ref="E69:F70"/>
-    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E91:F92"/>
+    <mergeCell ref="E93:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="H91:I92"/>
+    <mergeCell ref="H93:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H103:I104"/>
+    <mergeCell ref="H105:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="B103:C104"/>
+    <mergeCell ref="B105:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E103:F104"/>
+    <mergeCell ref="E105:F106"/>
+    <mergeCell ref="E107:F107"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16" r:id="rId1"/>
@@ -4034,7 +4045,7 @@
     <hyperlink ref="B28" r:id="rId9"/>
     <hyperlink ref="B52" r:id="rId10" display="Screenshot: footer module social icon links error"/>
     <hyperlink ref="E52" r:id="rId11"/>
-    <hyperlink ref="H52" r:id="rId12"/>
+    <hyperlink ref="H52" r:id="rId12" display="Screenshot: navigation sub menu hover error"/>
     <hyperlink ref="B64" r:id="rId13"/>
     <hyperlink ref="H76" r:id="rId14"/>
     <hyperlink ref="B88" r:id="rId15"/>
@@ -4043,13 +4054,13 @@
     <hyperlink ref="H64" r:id="rId18"/>
     <hyperlink ref="B76" r:id="rId19"/>
     <hyperlink ref="E88" r:id="rId20"/>
-    <hyperlink ref="H88" r:id="rId21"/>
-    <hyperlink ref="B100" r:id="rId22"/>
-    <hyperlink ref="E100" r:id="rId23"/>
-    <hyperlink ref="H100" r:id="rId24"/>
-    <hyperlink ref="B112" r:id="rId25"/>
-    <hyperlink ref="E112" r:id="rId26"/>
-    <hyperlink ref="H112" r:id="rId27" display="Screenshot: button problem in post page sidebar"/>
+    <hyperlink ref="B100" r:id="rId21"/>
+    <hyperlink ref="E100" r:id="rId22"/>
+    <hyperlink ref="H100" r:id="rId23"/>
+    <hyperlink ref="B112" r:id="rId24"/>
+    <hyperlink ref="E112" r:id="rId25"/>
+    <hyperlink ref="H112" r:id="rId26" display="Screenshot: button problem in post page sidebar"/>
+    <hyperlink ref="H88" r:id="rId27" display="Screenshot: button problem in post page sidebar"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId28"/>

--- a/Dekhi Bangladesh Bug Report.xlsx
+++ b/Dekhi Bangladesh Bug Report.xlsx
@@ -1030,12 +1030,13 @@
     </r>
   </si>
   <si>
+    <t>Screenshot: comment functionality under post does not work</t>
+  </si>
+  <si>
     <t>1. Enter the site url.
-2. Go to a post &amp; scroll down to the comment section
-2. Try to post a comment.</t>
-  </si>
-  <si>
-    <t>Screenshot: comment functionality under post does not work</t>
+2. Go to a post or go to the url: https://db.bpwork.xyz/pages/lalbagh.html
+3.  Scroll down to the comment section.
+4. Try to post a comment.</t>
   </si>
 </sst>
 </file>
@@ -1691,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2987,7 +2988,7 @@
       </c>
       <c r="F108" s="2"/>
       <c r="H108" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I108" s="2"/>
     </row>
@@ -3015,7 +3016,7 @@
       </c>
       <c r="F110" s="2"/>
       <c r="H110" s="5" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="I110" s="2"/>
     </row>
@@ -3042,8 +3043,8 @@
         <v>121</v>
       </c>
       <c r="F112" s="2"/>
-      <c r="H112" s="8" t="s">
-        <v>138</v>
+      <c r="H112" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="I112" s="2"/>
     </row>
@@ -4059,10 +4060,10 @@
     <hyperlink ref="H100" r:id="rId23"/>
     <hyperlink ref="B112" r:id="rId24"/>
     <hyperlink ref="E112" r:id="rId25"/>
-    <hyperlink ref="H112" r:id="rId26" display="Screenshot: button problem in post page sidebar"/>
+    <hyperlink ref="H112" r:id="rId26"/>
     <hyperlink ref="H88" r:id="rId27" display="Screenshot: button problem in post page sidebar"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="landscape" r:id="rId28"/>
 </worksheet>
 </file>
--- a/Dekhi Bangladesh Bug Report.xlsx
+++ b/Dekhi Bangladesh Bug Report.xlsx
@@ -47,12 +47,6 @@
     </r>
   </si>
   <si>
-    <t>1. Enter the site URL.
-2. Go to the search bar at the top right side.
-3. Input a string.
-4. Click Enter or the search icon.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Module: </t>
     </r>
@@ -65,9 +59,6 @@
       </rPr>
       <t>Site Topbar</t>
     </r>
-  </si>
-  <si>
-    <t>Screenshot: Searchbar error</t>
   </si>
   <si>
     <r>
@@ -162,9 +153,6 @@
     </r>
   </si>
   <si>
-    <t>Screenshot: Navigation post link error</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Issue: </t>
     </r>
@@ -257,9 +245,6 @@
     </r>
   </si>
   <si>
-    <t>Screenshot: Hero Image stretch out error</t>
-  </si>
-  <si>
     <t>Screenshot: post card apears left on tablet</t>
   </si>
   <si>
@@ -434,20 +419,6 @@
   </si>
   <si>
     <t>Screenshot: login navigation menu error</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Site Navigation menu "লগ ইন" doesn't work properly.</t>
-    </r>
   </si>
   <si>
     <t>1. Enter the site URL.
@@ -866,34 +837,6 @@
     <t>Screenshot: button problem in single oviggota page sidebar</t>
   </si>
   <si>
-    <r>
-      <t>Issue:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "বিস্তারিত পড়ুন" button proble in post cards in the post page on the right sidebar.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Issue:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "বিস্তারিত পড়ুন" button proble in post cards in the "single oviggota" page on the right sidebar.</t>
-    </r>
-  </si>
-  <si>
     <t>Screenshot: button problem in post page sidebar</t>
   </si>
   <si>
@@ -1037,6 +980,63 @@
 2. Go to a post or go to the url: https://db.bpwork.xyz/pages/lalbagh.html
 3.  Scroll down to the comment section.
 4. Try to post a comment.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Issue: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Site Navigation menu "লগ ইন" doesn't work.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the site URL.
+2. Go to the search bar at the top right side.
+3. Input a string.
+4. Click on enter or the search icon.</t>
+  </si>
+  <si>
+    <t>Screenshot: Navigation post link does not work</t>
+  </si>
+  <si>
+    <t>Screenshot: Hero Image looks stretch out</t>
+  </si>
+  <si>
+    <t>Screenshot: Searchbar does not work</t>
+  </si>
+  <si>
+    <r>
+      <t>Issue:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "বিস্তারিত পড়ুন" button problem in post cards in the "single oviggota" page on the right sidebar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Issue:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "বিস্তারিত পড়ুন" button problem in post cards in the post page on the right sidebar.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1692,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1710,16 +1710,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G1" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1728,30 +1728,30 @@
       </c>
       <c r="C3" s="28"/>
       <c r="G3" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29"/>
       <c r="C4" s="30"/>
       <c r="G4" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29"/>
       <c r="C5" s="30"/>
       <c r="G5" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="C7" s="22"/>
       <c r="E7" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="18"/>
       <c r="H7" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7" s="18"/>
     </row>
@@ -1786,11 +1786,11 @@
       </c>
       <c r="C9" s="22"/>
       <c r="E9" s="21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="22"/>
       <c r="H9" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" s="22"/>
     </row>
@@ -1818,74 +1818,74 @@
     </row>
     <row r="12" spans="1:24" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2"/>
       <c r="E14" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="9" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
       <c r="H16" s="7" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
@@ -1906,30 +1906,30 @@
     </row>
     <row r="17" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3"/>
       <c r="E17" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3"/>
       <c r="H17" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="18"/>
       <c r="E19" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" s="18"/>
       <c r="H19" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" s="18"/>
     </row>
@@ -1943,15 +1943,15 @@
     </row>
     <row r="21" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" s="22"/>
       <c r="E21" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" s="22"/>
       <c r="H21" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I21" s="22"/>
     </row>
@@ -1979,100 +1979,100 @@
     </row>
     <row r="24" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2"/>
       <c r="E24" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C25" s="2"/>
       <c r="E25" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2"/>
       <c r="E26" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C27" s="2"/>
       <c r="E27" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2"/>
       <c r="E28" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3"/>
       <c r="E29" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29" s="3"/>
       <c r="H29" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C31" s="18"/>
       <c r="E31" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F31" s="18"/>
       <c r="H31" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I31" s="18"/>
     </row>
@@ -2086,15 +2086,15 @@
     </row>
     <row r="33" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C33" s="22"/>
       <c r="E33" s="21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F33" s="22"/>
       <c r="H33" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I33" s="22"/>
     </row>
@@ -2122,100 +2122,100 @@
     </row>
     <row r="36" spans="2:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2"/>
       <c r="E36" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F36" s="2"/>
       <c r="H36" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2"/>
       <c r="E37" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F37" s="2"/>
       <c r="H37" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2"/>
       <c r="E38" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F38" s="2"/>
       <c r="H38" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2"/>
       <c r="E39" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2"/>
       <c r="H39" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C40" s="2"/>
       <c r="E40" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2"/>
       <c r="H40" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" s="3"/>
       <c r="E41" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F41" s="3"/>
       <c r="H41" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C43" s="18"/>
       <c r="E43" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F43" s="18"/>
       <c r="H43" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I43" s="18"/>
     </row>
@@ -2229,15 +2229,15 @@
     </row>
     <row r="45" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C45" s="22"/>
       <c r="E45" s="21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F45" s="22"/>
       <c r="H45" s="21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I45" s="22"/>
     </row>
@@ -2265,100 +2265,100 @@
     </row>
     <row r="48" spans="2:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2"/>
       <c r="E48" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F48" s="2"/>
       <c r="H48" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C49" s="2"/>
       <c r="E49" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F49" s="2"/>
       <c r="H49" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C50" s="2"/>
       <c r="E50" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F50" s="2"/>
       <c r="H50" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="2:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2"/>
       <c r="E51" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2"/>
       <c r="H51" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
-        <v>34</v>
+      <c r="B52" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C52" s="2"/>
       <c r="E52" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F52" s="2"/>
       <c r="H52" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="2:9" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3"/>
       <c r="E53" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F53" s="3"/>
       <c r="H53" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C55" s="18"/>
       <c r="E55" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F55" s="18"/>
       <c r="H55" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I55" s="18"/>
     </row>
@@ -2372,15 +2372,15 @@
     </row>
     <row r="57" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="21" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="C57" s="22"/>
       <c r="E57" s="21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F57" s="22"/>
       <c r="H57" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I57" s="22"/>
     </row>
@@ -2408,100 +2408,100 @@
     </row>
     <row r="60" spans="2:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C60" s="2"/>
       <c r="E60" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F60" s="2"/>
       <c r="H60" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="2:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F61" s="2"/>
       <c r="H61" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="2:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F62" s="2"/>
       <c r="H62" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="2:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2"/>
       <c r="E63" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2"/>
       <c r="H63" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="2:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C64" s="2"/>
       <c r="E64" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F64" s="2"/>
       <c r="H64" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="2:9" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" s="3"/>
       <c r="E65" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F65" s="3"/>
       <c r="H65" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="67" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C67" s="18"/>
       <c r="E67" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F67" s="18"/>
       <c r="H67" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I67" s="18"/>
     </row>
@@ -2515,15 +2515,15 @@
     </row>
     <row r="69" spans="2:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C69" s="22"/>
       <c r="E69" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F69" s="22"/>
       <c r="H69" s="21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I69" s="22"/>
     </row>
@@ -2551,100 +2551,100 @@
     </row>
     <row r="72" spans="2:9" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C72" s="2"/>
       <c r="E72" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F72" s="2"/>
       <c r="H72" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="2:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C73" s="2"/>
       <c r="E73" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F73" s="2"/>
       <c r="H73" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2"/>
       <c r="E74" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F74" s="2"/>
       <c r="H74" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C75" s="2"/>
       <c r="E75" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F75" s="2"/>
       <c r="H75" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="2:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2"/>
       <c r="E76" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2"/>
       <c r="H76" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="2:9" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" s="3"/>
       <c r="E77" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F77" s="3"/>
       <c r="H77" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="79" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C79" s="18"/>
       <c r="E79" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F79" s="18"/>
       <c r="H79" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I79" s="18"/>
     </row>
@@ -2658,15 +2658,15 @@
     </row>
     <row r="81" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C81" s="22"/>
       <c r="E81" s="21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F81" s="22"/>
       <c r="H81" s="21" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I81" s="22"/>
     </row>
@@ -2694,100 +2694,100 @@
     </row>
     <row r="84" spans="2:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F84" s="2"/>
       <c r="H84" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="2:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2"/>
       <c r="E85" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2"/>
       <c r="H85" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2"/>
       <c r="E86" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2"/>
       <c r="H86" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="2:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C87" s="2"/>
       <c r="E87" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F87" s="2"/>
       <c r="H87" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2"/>
       <c r="E88" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F88" s="2"/>
       <c r="H88" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="2:9" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" s="3"/>
       <c r="E89" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F89" s="3"/>
       <c r="H89" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="91" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C91" s="18"/>
       <c r="E91" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F91" s="18"/>
       <c r="H91" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I91" s="18"/>
     </row>
@@ -2801,15 +2801,15 @@
     </row>
     <row r="93" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C93" s="22"/>
       <c r="E93" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F93" s="22"/>
       <c r="H93" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I93" s="22"/>
     </row>
@@ -2837,100 +2837,100 @@
     </row>
     <row r="96" spans="2:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C96" s="2"/>
       <c r="E96" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2"/>
       <c r="H96" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="2:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2"/>
       <c r="E97" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F97" s="2"/>
       <c r="H97" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="2:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C98" s="2"/>
       <c r="E98" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F98" s="2"/>
       <c r="H98" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2"/>
       <c r="E99" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F99" s="2"/>
       <c r="H99" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2"/>
       <c r="E100" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F100" s="2"/>
       <c r="H100" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="2:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" s="3"/>
       <c r="E101" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F101" s="3"/>
       <c r="H101" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C103" s="18"/>
       <c r="E103" s="17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F103" s="18"/>
       <c r="H103" s="17" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I103" s="18"/>
     </row>
@@ -2944,15 +2944,15 @@
     </row>
     <row r="105" spans="2:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="21" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C105" s="22"/>
       <c r="E105" s="21" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="F105" s="22"/>
       <c r="H105" s="21" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I105" s="22"/>
     </row>
@@ -2980,85 +2980,85 @@
     </row>
     <row r="108" spans="2:9" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2"/>
       <c r="E108" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F108" s="2"/>
       <c r="H108" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2"/>
       <c r="E109" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2"/>
       <c r="H109" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2"/>
       <c r="E110" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2"/>
       <c r="H110" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="2:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2"/>
       <c r="E111" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2"/>
       <c r="H111" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="2:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2"/>
       <c r="E112" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F112" s="2"/>
       <c r="H112" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="2:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" s="3"/>
       <c r="E113" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F113" s="3"/>
       <c r="H113" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I113" s="3"/>
     </row>
@@ -3951,22 +3951,61 @@
     <row r="1000" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="H67:I68"/>
-    <mergeCell ref="H69:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E67:F68"/>
-    <mergeCell ref="E69:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H55:I56"/>
-    <mergeCell ref="H57:I58"/>
-    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H103:I104"/>
+    <mergeCell ref="H105:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="B103:C104"/>
+    <mergeCell ref="B105:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E103:F104"/>
+    <mergeCell ref="E105:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E91:F92"/>
+    <mergeCell ref="E93:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="H91:I92"/>
+    <mergeCell ref="H93:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H79:I80"/>
+    <mergeCell ref="H81:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="B91:C92"/>
+    <mergeCell ref="B93:C94"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="B81:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E79:F80"/>
+    <mergeCell ref="E81:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B3:C6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="H43:I44"/>
     <mergeCell ref="H45:I46"/>
     <mergeCell ref="H47:I47"/>
@@ -3978,73 +4017,34 @@
     <mergeCell ref="E43:F44"/>
     <mergeCell ref="E45:F46"/>
     <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B3:C6"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H79:I80"/>
-    <mergeCell ref="H81:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="B91:C92"/>
-    <mergeCell ref="B93:C94"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="B81:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E79:F80"/>
-    <mergeCell ref="E81:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E91:F92"/>
-    <mergeCell ref="E93:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="H91:I92"/>
-    <mergeCell ref="H93:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H103:I104"/>
-    <mergeCell ref="H105:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="B103:C104"/>
-    <mergeCell ref="B105:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E103:F104"/>
-    <mergeCell ref="E105:F106"/>
-    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="H57:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H67:I68"/>
+    <mergeCell ref="H69:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="E69:F70"/>
+    <mergeCell ref="E71:F71"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H16" r:id="rId1"/>
+    <hyperlink ref="H16" r:id="rId1" display="Screenshot: Navigation post link error"/>
     <hyperlink ref="H28" r:id="rId2"/>
     <hyperlink ref="E28" r:id="rId3"/>
     <hyperlink ref="B40" r:id="rId4"/>
     <hyperlink ref="E40" r:id="rId5"/>
     <hyperlink ref="H40" r:id="rId6"/>
     <hyperlink ref="E16" r:id="rId7" display="Screenshot: Navigation menu error"/>
-    <hyperlink ref="B16" r:id="rId8"/>
-    <hyperlink ref="B28" r:id="rId9"/>
-    <hyperlink ref="B52" r:id="rId10" display="Screenshot: footer module social icon links error"/>
+    <hyperlink ref="B16" r:id="rId8" display="Screenshot: Searchbar error"/>
+    <hyperlink ref="B28" r:id="rId9" display="Screenshot: Hero Image stretch out error"/>
+    <hyperlink ref="B52" r:id="rId10"/>
     <hyperlink ref="E52" r:id="rId11"/>
     <hyperlink ref="H52" r:id="rId12" display="Screenshot: navigation sub menu hover error"/>
     <hyperlink ref="B64" r:id="rId13"/>
